--- a/Train Paths.xlsx
+++ b/Train Paths.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ABFF41D-11F2-40FD-AD7D-220B5125CDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6232B9-9CAA-463D-A567-9CA2423F28C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Red Line" sheetId="1" r:id="rId1"/>
-    <sheet name="Green Line" sheetId="2" r:id="rId2"/>
+    <sheet name="Green Line" sheetId="2" r:id="rId1"/>
+    <sheet name="Red Line" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="57">
   <si>
     <t>K</t>
   </si>
@@ -81,9 +81,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>SWITCH (76-77;77-101)</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Left/Right</t>
   </si>
   <si>
-    <t>SWITCH (85-86; 100-85)</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>STATION;   CASTLE SHANNON</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
@@ -123,9 +114,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>RAILWAY CROSSING</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -135,18 +123,6 @@
     <t>W</t>
   </si>
   <si>
-    <t>UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION; OVERBROOK; UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION; INGLEWOOD; UNDERGROUND</t>
-  </si>
-  <si>
-    <t>STATION; CENTRAL; UNDERDROUND</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -162,9 +138,6 @@
     <t>STATION; WHITED</t>
   </si>
   <si>
-    <t>SWITCH (28-29; 150-28)</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -180,9 +153,6 @@
     <t>STATION; EDGEBROOK</t>
   </si>
   <si>
-    <t>SWITCH (12-13; 1-13)</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -210,10 +180,34 @@
     <t>J</t>
   </si>
   <si>
-    <t>SWITCH TO YARD (57-yard)</t>
-  </si>
-  <si>
-    <t>SWITCH FROM YARD (Yard-63)</t>
+    <t>STATION; OVERBROOK</t>
+  </si>
+  <si>
+    <t>STATION; INGLEWOOD</t>
+  </si>
+  <si>
+    <t>STATION; CENTRAL</t>
+  </si>
+  <si>
+    <t>STATION; LEBRON</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>STATION; CASTLE SHANNON</t>
+  </si>
+  <si>
+    <t>Glenbury --&gt; Castle Shannon</t>
+  </si>
+  <si>
+    <t>START --&gt; Glenbury</t>
+  </si>
+  <si>
+    <t>Castle Shannon --&gt; END</t>
   </si>
 </sst>
 </file>
@@ -623,23 +617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681D3D5A-AA2E-42DC-90C6-FB0A28127D18}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC49BC8-5AFA-4F8B-8993-BD2220A0FE14}">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,10 +634,12 @@
     <col min="6" max="6" width="28.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.33203125" style="7"/>
+    <col min="9" max="9" width="10.33203125" style="7"/>
+    <col min="10" max="10" width="24" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.33203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -681,12 +665,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4">
         <v>62</v>
@@ -698,17 +682,17 @@
         <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="6">
-        <f>D2*(1/(E2*1000/(60*60)))</f>
+        <f t="shared" ref="H2:H33" si="0">D2*(1/(E2*1000/(60*60)))</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -725,13 +709,20 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="6">
-        <f>D3*(1/(E3*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="7">
+        <f>SUM(D2:D5) + 17</f>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -748,13 +739,20 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="6">
-        <f>D4*(1/(E4*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="7">
+        <f>SUM(D5:D36)</f>
+        <v>4986.6000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
@@ -775,13 +773,20 @@
         <v>2</v>
       </c>
       <c r="H5" s="6">
-        <f>D5*(1/(E5*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.285714285714286</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="7">
+        <f>SUM(D36:D173)</f>
+        <v>14741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
@@ -798,13 +803,13 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="6">
-        <f>D6*(1/(E6*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
@@ -821,13 +826,13 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="6">
-        <f>D7*(1/(E7*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
@@ -844,13 +849,13 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="6">
-        <f>D8*(1/(E8*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -867,13 +872,13 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="6">
-        <f>D9*(1/(E9*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -890,13 +895,13 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="6">
-        <f>D10*(1/(E10*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -913,13 +918,13 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="6">
-        <f>D11*(1/(E11*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -936,13 +941,13 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="6">
-        <f>D12*(1/(E12*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -963,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="H13" s="6">
-        <f>D13*(1/(E13*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -986,13 +991,13 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="6">
-        <f>D14*(1/(E14*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -1009,13 +1014,13 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="6">
-        <f>D15*(1/(E15*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
@@ -1029,21 +1034,19 @@
       <c r="E16" s="3">
         <v>40</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="6">
-        <f>D16*(1/(E16*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3">
         <v>77</v>
@@ -1055,22 +1058,22 @@
         <v>70</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H17" s="6">
-        <f>D17*(1/(E17*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4">
         <v>78</v>
@@ -1084,16 +1087,16 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="6">
-        <f>D18*(1/(E18*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3">
         <v>79</v>
@@ -1107,16 +1110,16 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="6">
-        <f>D19*(1/(E19*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3">
         <v>80</v>
@@ -1130,16 +1133,16 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="6">
-        <f>D20*(1/(E20*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3">
         <v>81</v>
@@ -1153,16 +1156,16 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="6">
-        <f>D21*(1/(E21*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="4">
         <v>82</v>
@@ -1176,16 +1179,16 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="6">
-        <f>D22*(1/(E22*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3">
         <v>83</v>
@@ -1199,16 +1202,16 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="6">
-        <f>D23*(1/(E23*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3">
         <v>84</v>
@@ -1222,16 +1225,16 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="6">
-        <f>D24*(1/(E24*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3">
         <v>85</v>
@@ -1242,21 +1245,19 @@
       <c r="E25" s="3">
         <v>70</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="6">
-        <f>D25*(1/(E25*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26" s="4">
         <v>86</v>
@@ -1270,16 +1271,16 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="6">
-        <f>D26*(1/(E26*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>14.399999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3">
         <v>87</v>
@@ -1293,16 +1294,16 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="6">
-        <f>D27*(1/(E27*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>12.470399999999998</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3">
         <v>88</v>
@@ -1314,22 +1315,22 @@
         <v>25</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H28" s="6">
-        <f>D28*(1/(E28*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>14.399999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3">
         <v>89</v>
@@ -1343,16 +1344,16 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="6">
-        <f>D29*(1/(E29*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" s="4">
         <v>90</v>
@@ -1366,16 +1367,16 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="6">
-        <f>D30*(1/(E30*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C31" s="3">
         <v>91</v>
@@ -1389,16 +1390,16 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="6">
-        <f>D31*(1/(E31*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32" s="3">
         <v>92</v>
@@ -1412,16 +1413,16 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="6">
-        <f>D32*(1/(E32*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="3">
         <v>93</v>
@@ -1435,16 +1436,16 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="6">
-        <f>D33*(1/(E33*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C34" s="4">
         <v>94</v>
@@ -1458,16 +1459,16 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="6">
-        <f>D34*(1/(E34*1000/(60*60)))</f>
+        <f t="shared" ref="H34:H65" si="1">D34*(1/(E34*1000/(60*60)))</f>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C35" s="3">
         <v>95</v>
@@ -1481,16 +1482,16 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="6">
-        <f>D35*(1/(E35*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36" s="3">
         <v>96</v>
@@ -1502,22 +1503,22 @@
         <v>25</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H36" s="6">
-        <f>D36*(1/(E36*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C37" s="3">
         <v>97</v>
@@ -1531,16 +1532,16 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="6">
-        <f>D37*(1/(E37*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C38" s="4">
         <v>98</v>
@@ -1554,16 +1555,16 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="6">
-        <f>D38*(1/(E38*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C39" s="3">
         <v>99</v>
@@ -1577,16 +1578,16 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="6">
-        <f>D39*(1/(E39*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C40" s="3">
         <v>100</v>
@@ -1600,16 +1601,16 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="6">
-        <f>D40*(1/(E40*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.799999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="3">
         <v>85</v>
@@ -1620,21 +1621,19 @@
       <c r="E41" s="3">
         <v>70</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="6">
-        <f>D41*(1/(E41*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="3">
         <v>84</v>
@@ -1648,16 +1647,16 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="6">
-        <f>D42*(1/(E42*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="3">
         <v>83</v>
@@ -1671,16 +1670,16 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="6">
-        <f>D43*(1/(E43*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" s="4">
         <v>82</v>
@@ -1694,16 +1693,16 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="6">
-        <f>D44*(1/(E44*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" s="3">
         <v>81</v>
@@ -1717,16 +1716,16 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="6">
-        <f>D45*(1/(E45*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="3">
         <v>80</v>
@@ -1740,16 +1739,16 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="6">
-        <f>D46*(1/(E46*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="3">
         <v>79</v>
@@ -1763,16 +1762,16 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="6">
-        <f>D47*(1/(E47*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="4">
         <v>78</v>
@@ -1786,16 +1785,16 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="6">
-        <f>D48*(1/(E48*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" s="3">
         <v>77</v>
@@ -1807,22 +1806,22 @@
         <v>70</v>
       </c>
       <c r="F49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H49" s="6">
-        <f>D49*(1/(E49*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C50" s="3">
         <v>101</v>
@@ -1836,16 +1835,16 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="6">
-        <f>D50*(1/(E50*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>4.8461538461538467</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C51" s="4">
         <v>102</v>
@@ -1859,16 +1858,16 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="6">
-        <f>D51*(1/(E51*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C52" s="3">
         <v>103</v>
@@ -1882,16 +1881,16 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="6">
-        <f>D52*(1/(E52*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C53" s="3">
         <v>104</v>
@@ -1905,16 +1904,16 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="6">
-        <f>D53*(1/(E53*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>10.285714285714286</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C54" s="3">
         <v>105</v>
@@ -1932,16 +1931,16 @@
         <v>2</v>
       </c>
       <c r="H54" s="6">
-        <f>D54*(1/(E54*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C55" s="4">
         <v>106</v>
@@ -1955,16 +1954,16 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="6">
-        <f>D55*(1/(E55*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C56" s="3">
         <v>107</v>
@@ -1978,16 +1977,16 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="6">
-        <f>D56*(1/(E56*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>11.571428571428573</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C57" s="3">
         <v>108</v>
@@ -1998,21 +1997,19 @@
       <c r="E57" s="3">
         <v>28</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="6">
-        <f>D57*(1/(E57*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C58" s="3">
         <v>109</v>
@@ -2026,16 +2023,16 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="6">
-        <f>D58*(1/(E58*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12.857142857142859</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C59" s="4">
         <v>110</v>
@@ -2049,16 +2046,16 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="6">
-        <f>D59*(1/(E59*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C60" s="3">
         <v>111</v>
@@ -2072,16 +2069,16 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="6">
-        <f>D60*(1/(E60*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C61" s="3">
         <v>112</v>
@@ -2095,16 +2092,16 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="6">
-        <f>D61*(1/(E61*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C62" s="3">
         <v>113</v>
@@ -2118,16 +2115,16 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="6">
-        <f>D62*(1/(E62*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C63" s="4">
         <v>114</v>
@@ -2139,23 +2136,21 @@
       <c r="E63" s="3">
         <v>30</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="F63" s="5"/>
       <c r="G63" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H63" s="6">
-        <f>D63*(1/(E63*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>19.439999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C64" s="3">
         <v>115</v>
@@ -2169,16 +2164,16 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="6">
-        <f>D64*(1/(E64*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C65" s="3">
         <v>116</v>
@@ -2192,16 +2187,16 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="6">
-        <f>D65*(1/(E65*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C66" s="3">
         <v>117</v>
@@ -2215,16 +2210,16 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="6">
-        <f>D66*(1/(E66*1000/(60*60)))</f>
+        <f t="shared" ref="H66:H97" si="2">D66*(1/(E66*1000/(60*60)))</f>
         <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C67" s="4">
         <v>118</v>
@@ -2238,16 +2233,16 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="6">
-        <f>D67*(1/(E67*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C68" s="3">
         <v>119</v>
@@ -2261,16 +2256,16 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="6">
-        <f>D68*(1/(E68*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C69" s="3">
         <v>120</v>
@@ -2284,16 +2279,16 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="6">
-        <f>D69*(1/(E69*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C70" s="3">
         <v>121</v>
@@ -2307,16 +2302,16 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="6">
-        <f>D70*(1/(E70*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C71" s="4">
         <v>122</v>
@@ -2327,21 +2322,19 @@
       <c r="E71" s="3">
         <v>20</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="6">
-        <f>D71*(1/(E71*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C72" s="3">
         <v>123</v>
@@ -2353,22 +2346,22 @@
         <v>20</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H72" s="6">
-        <f>D72*(1/(E72*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C73" s="3">
         <v>124</v>
@@ -2379,21 +2372,19 @@
       <c r="E73" s="3">
         <v>20</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="6">
-        <f>D73*(1/(E73*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C74" s="3">
         <v>125</v>
@@ -2404,21 +2395,19 @@
       <c r="E74" s="3">
         <v>20</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="6">
-        <f>D74*(1/(E74*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C75" s="4">
         <v>126</v>
@@ -2429,21 +2418,19 @@
       <c r="E75" s="3">
         <v>20</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="6">
-        <f>D75*(1/(E75*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C76" s="3">
         <v>127</v>
@@ -2454,21 +2441,19 @@
       <c r="E76" s="3">
         <v>20</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="6">
-        <f>D76*(1/(E76*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C77" s="3">
         <v>128</v>
@@ -2479,21 +2464,19 @@
       <c r="E77" s="3">
         <v>20</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="6">
-        <f>D77*(1/(E77*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C78" s="3">
         <v>129</v>
@@ -2504,21 +2487,19 @@
       <c r="E78" s="3">
         <v>20</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="6">
-        <f>D78*(1/(E78*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C79" s="4">
         <v>130</v>
@@ -2529,21 +2510,19 @@
       <c r="E79" s="3">
         <v>20</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="6">
-        <f>D79*(1/(E79*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C80" s="3">
         <v>131</v>
@@ -2554,21 +2533,19 @@
       <c r="E80" s="3">
         <v>20</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="6">
-        <f>D80*(1/(E80*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C81" s="3">
         <v>132</v>
@@ -2580,22 +2557,22 @@
         <v>20</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H81" s="6">
-        <f>D81*(1/(E81*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C82" s="3">
         <v>133</v>
@@ -2606,21 +2583,19 @@
       <c r="E82" s="3">
         <v>20</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="6">
-        <f>D82*(1/(E82*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C83" s="4">
         <v>134</v>
@@ -2631,21 +2606,19 @@
       <c r="E83" s="3">
         <v>20</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="6">
-        <f>D83*(1/(E83*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C84" s="3">
         <v>135</v>
@@ -2656,21 +2629,19 @@
       <c r="E84" s="3">
         <v>20</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="6">
-        <f>D84*(1/(E84*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C85" s="3">
         <v>136</v>
@@ -2681,21 +2652,19 @@
       <c r="E85" s="3">
         <v>20</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="6">
-        <f>D85*(1/(E85*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C86" s="3">
         <v>137</v>
@@ -2706,21 +2675,19 @@
       <c r="E86" s="3">
         <v>20</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="6">
-        <f>D86*(1/(E86*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C87" s="4">
         <v>138</v>
@@ -2731,21 +2698,19 @@
       <c r="E87" s="3">
         <v>20</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="6">
-        <f>D87*(1/(E87*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C88" s="3">
         <v>139</v>
@@ -2756,21 +2721,19 @@
       <c r="E88" s="3">
         <v>20</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="6">
-        <f>D88*(1/(E88*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C89" s="3">
         <v>140</v>
@@ -2781,21 +2744,19 @@
       <c r="E89" s="3">
         <v>20</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="6">
-        <f>D89*(1/(E89*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C90" s="3">
         <v>141</v>
@@ -2807,22 +2768,22 @@
         <v>20</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H90" s="6">
-        <f>D90*(1/(E90*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C91" s="4">
         <v>142</v>
@@ -2833,21 +2794,19 @@
       <c r="E91" s="3">
         <v>20</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="6">
-        <f>D91*(1/(E91*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C92" s="3">
         <v>143</v>
@@ -2858,21 +2817,19 @@
       <c r="E92" s="3">
         <v>20</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="6">
-        <f>D92*(1/(E92*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C93" s="3">
         <v>144</v>
@@ -2886,16 +2843,16 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="6">
-        <f>D93*(1/(E93*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C94" s="3">
         <v>145</v>
@@ -2909,16 +2866,16 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="6">
-        <f>D94*(1/(E94*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C95" s="4">
         <v>146</v>
@@ -2932,16 +2889,16 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="6">
-        <f>D95*(1/(E95*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C96" s="3">
         <v>147</v>
@@ -2955,16 +2912,16 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="6">
-        <f>D96*(1/(E96*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C97" s="3">
         <v>148</v>
@@ -2979,16 +2936,16 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="6">
-        <f>D97*(1/(E97*1000/(60*60)))</f>
+        <f t="shared" si="2"/>
         <v>33.119999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C98" s="3">
         <v>149</v>
@@ -3002,16 +2959,16 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="6">
-        <f>D98*(1/(E98*1000/(60*60)))</f>
+        <f t="shared" ref="H98:H129" si="3">D98*(1/(E98*1000/(60*60)))</f>
         <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C99" s="4">
         <v>150</v>
@@ -3025,16 +2982,16 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="6">
-        <f>D99*(1/(E99*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>6.3</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C100" s="3">
         <v>28</v>
@@ -3045,21 +3002,19 @@
       <c r="E100" s="3">
         <v>30</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="6">
-        <f>D100*(1/(E100*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C101" s="4">
         <v>27</v>
@@ -3073,16 +3028,16 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="6">
-        <f>D101*(1/(E101*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C102" s="3">
         <v>26</v>
@@ -3096,16 +3051,16 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="6">
-        <f>D102*(1/(E102*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C103" s="4">
         <v>25</v>
@@ -3119,16 +3074,16 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="6">
-        <f>D103*(1/(E103*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>10.285714285714286</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C104" s="3">
         <v>24</v>
@@ -3142,16 +3097,16 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="6">
-        <f>D104*(1/(E104*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C105" s="3">
         <v>23</v>
@@ -3165,16 +3120,16 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="6">
-        <f>D105*(1/(E105*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C106" s="4">
         <v>22</v>
@@ -3186,22 +3141,22 @@
         <v>70</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H106" s="6">
-        <f>D106*(1/(E106*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C107" s="3">
         <v>21</v>
@@ -3215,16 +3170,16 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="6">
-        <f>D107*(1/(E107*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C108" s="4">
         <v>20</v>
@@ -3238,16 +3193,16 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="6">
-        <f>D108*(1/(E108*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C109" s="3">
         <v>19</v>
@@ -3258,21 +3213,19 @@
       <c r="E109" s="3">
         <v>60</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="F109" s="5"/>
       <c r="G109" s="3"/>
       <c r="H109" s="6">
-        <f>D109*(1/(E109*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C110" s="3">
         <v>18</v>
@@ -3286,16 +3239,16 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="6">
-        <f>D110*(1/(E110*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C111" s="4">
         <v>17</v>
@@ -3309,16 +3262,16 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="6">
-        <f>D111*(1/(E111*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C112" s="3">
         <v>16</v>
@@ -3330,22 +3283,22 @@
         <v>70</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H112" s="6">
-        <f>D112*(1/(E112*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C113" s="4">
         <v>15</v>
@@ -3359,16 +3312,16 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="6">
-        <f>D113*(1/(E113*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C114" s="3">
         <v>14</v>
@@ -3382,16 +3335,16 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="6">
-        <f>D114*(1/(E114*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C115" s="3">
         <v>13</v>
@@ -3405,16 +3358,16 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="6">
-        <f>D115*(1/(E115*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C116" s="4">
         <v>12</v>
@@ -3425,21 +3378,19 @@
       <c r="E116" s="3">
         <v>45</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="6">
-        <f>D116*(1/(E116*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C117" s="3">
         <v>11</v>
@@ -3453,16 +3404,16 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="6">
-        <f>D117*(1/(E117*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C118" s="4">
         <v>10</v>
@@ -3476,16 +3427,16 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="6">
-        <f>D118*(1/(E118*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C119" s="3">
         <v>9</v>
@@ -3497,22 +3448,22 @@
         <v>45</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H119" s="6">
-        <f>D119*(1/(E119*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C120" s="3">
         <v>8</v>
@@ -3526,16 +3477,16 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="6">
-        <f>D120*(1/(E120*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C121" s="4">
         <v>7</v>
@@ -3549,16 +3500,16 @@
       <c r="F121" s="5"/>
       <c r="G121" s="3"/>
       <c r="H121" s="6">
-        <f>D121*(1/(E121*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C122" s="3">
         <v>6</v>
@@ -3572,16 +3523,16 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="6">
-        <f>D122*(1/(E122*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C123" s="3">
         <v>5</v>
@@ -3595,16 +3546,16 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="6">
-        <f>D123*(1/(E123*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C124" s="4">
         <v>4</v>
@@ -3618,16 +3569,16 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="6">
-        <f>D124*(1/(E124*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C125" s="3">
         <v>3</v>
@@ -3641,7 +3592,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="6">
-        <f>D125*(1/(E125*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3651,7 +3602,7 @@
         <v>Green</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C126" s="3">
         <v>2</v>
@@ -3663,23 +3614,23 @@
         <v>45</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H126" s="6">
-        <f>D126*(1/(E126*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="str">
-        <f t="shared" ref="A127:A173" si="0">A126</f>
+        <f t="shared" ref="A127:A173" si="4">A126</f>
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C127" s="4">
         <v>1</v>
@@ -3693,17 +3644,17 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="6">
-        <f>D127*(1/(E127*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C128" s="3">
         <v>13</v>
@@ -3717,17 +3668,17 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="6">
-        <f>D128*(1/(E128*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C129" s="3">
         <v>14</v>
@@ -3741,17 +3692,17 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="6">
-        <f>D129*(1/(E129*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C130" s="4">
         <v>15</v>
@@ -3765,17 +3716,17 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="6">
-        <f>D130*(1/(E130*1000/(60*60)))</f>
+        <f t="shared" ref="H130:H161" si="5">D130*(1/(E130*1000/(60*60)))</f>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C131" s="3">
         <v>16</v>
@@ -3787,23 +3738,23 @@
         <v>70</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H131" s="6">
-        <f>D131*(1/(E131*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C132" s="4">
         <v>17</v>
@@ -3817,17 +3768,17 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="6">
-        <f>D132*(1/(E132*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C133" s="3">
         <v>18</v>
@@ -3841,17 +3792,17 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="6">
-        <f>D133*(1/(E133*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C134" s="3">
         <v>19</v>
@@ -3862,22 +3813,20 @@
       <c r="E134" s="3">
         <v>60</v>
       </c>
-      <c r="F134" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="F134" s="5"/>
       <c r="G134" s="3"/>
       <c r="H134" s="6">
-        <f>D134*(1/(E134*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C135" s="4">
         <v>20</v>
@@ -3891,17 +3840,17 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="6">
-        <f>D135*(1/(E135*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C136" s="3">
         <v>21</v>
@@ -3915,17 +3864,17 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="6">
-        <f>D136*(1/(E136*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C137" s="4">
         <v>22</v>
@@ -3937,23 +3886,23 @@
         <v>70</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H137" s="6">
-        <f>D137*(1/(E137*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C138" s="3">
         <v>23</v>
@@ -3967,17 +3916,17 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="6">
-        <f>D138*(1/(E138*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C139" s="3">
         <v>24</v>
@@ -3991,17 +3940,17 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="6">
-        <f>D139*(1/(E139*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>15.428571428571431</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C140" s="4">
         <v>25</v>
@@ -4015,17 +3964,17 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="6">
-        <f>D140*(1/(E140*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>10.285714285714286</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C141" s="3">
         <v>26</v>
@@ -4039,17 +3988,17 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="6">
-        <f>D141*(1/(E141*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C142" s="4">
         <v>27</v>
@@ -4063,17 +4012,17 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="6">
-        <f>D142*(1/(E142*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C143" s="3">
         <v>28</v>
@@ -4084,22 +4033,20 @@
       <c r="E143" s="3">
         <v>30</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="6">
-        <f>D143*(1/(E143*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C144" s="3">
         <v>29</v>
@@ -4113,17 +4060,17 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="6">
-        <f>D144*(1/(E144*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C145" s="4">
         <v>30</v>
@@ -4137,17 +4084,17 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="6">
-        <f>D145*(1/(E145*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C146" s="3">
         <v>31</v>
@@ -4159,23 +4106,23 @@
         <v>30</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H146" s="6">
-        <f>D146*(1/(E146*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C147" s="4">
         <v>32</v>
@@ -4189,17 +4136,17 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="6">
-        <f>D147*(1/(E147*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C148" s="3">
         <v>33</v>
@@ -4213,17 +4160,17 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="6">
-        <f>D148*(1/(E148*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C149" s="3">
         <v>34</v>
@@ -4237,17 +4184,17 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="6">
-        <f>D149*(1/(E149*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C150" s="4">
         <v>35</v>
@@ -4261,17 +4208,17 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="6">
-        <f>D150*(1/(E150*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C151" s="3">
         <v>36</v>
@@ -4282,12 +4229,10 @@
       <c r="E151" s="3">
         <v>30</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="6">
-        <f>D151*(1/(E151*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -4297,7 +4242,7 @@
         <v>Green</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C152" s="3">
         <v>37</v>
@@ -4308,22 +4253,20 @@
       <c r="E152" s="3">
         <v>30</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="6">
-        <f>D152*(1/(E152*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C153" s="4">
         <v>38</v>
@@ -4334,22 +4277,20 @@
       <c r="E153" s="3">
         <v>30</v>
       </c>
-      <c r="F153" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="6">
-        <f>D153*(1/(E153*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C154" s="3">
         <v>39</v>
@@ -4361,23 +4302,23 @@
         <v>30</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H154" s="6">
-        <f>D154*(1/(E154*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C155" s="3">
         <v>40</v>
@@ -4388,22 +4329,20 @@
       <c r="E155" s="3">
         <v>30</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="6">
-        <f>D155*(1/(E155*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C156" s="4">
         <v>41</v>
@@ -4414,22 +4353,20 @@
       <c r="E156" s="3">
         <v>30</v>
       </c>
-      <c r="F156" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="6">
-        <f>D156*(1/(E156*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C157" s="3">
         <v>42</v>
@@ -4440,22 +4377,20 @@
       <c r="E157" s="3">
         <v>30</v>
       </c>
-      <c r="F157" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="6">
-        <f>D157*(1/(E157*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C158" s="3">
         <v>43</v>
@@ -4466,22 +4401,20 @@
       <c r="E158" s="3">
         <v>30</v>
       </c>
-      <c r="F158" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="6">
-        <f>D158*(1/(E158*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C159" s="4">
         <v>44</v>
@@ -4492,22 +4425,20 @@
       <c r="E159" s="3">
         <v>30</v>
       </c>
-      <c r="F159" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="6">
-        <f>D159*(1/(E159*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C160" s="3">
         <v>45</v>
@@ -4518,22 +4449,20 @@
       <c r="E160" s="3">
         <v>30</v>
       </c>
-      <c r="F160" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="6">
-        <f>D160*(1/(E160*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C161" s="3">
         <v>46</v>
@@ -4544,22 +4473,20 @@
       <c r="E161" s="3">
         <v>30</v>
       </c>
-      <c r="F161" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="6">
-        <f>D161*(1/(E161*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C162" s="4">
         <v>47</v>
@@ -4570,22 +4497,20 @@
       <c r="E162" s="3">
         <v>30</v>
       </c>
-      <c r="F162" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="6">
-        <f>D162*(1/(E162*1000/(60*60)))</f>
+        <f t="shared" ref="H162:H173" si="6">D162*(1/(E162*1000/(60*60)))</f>
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C163" s="3">
         <v>48</v>
@@ -4597,23 +4522,23 @@
         <v>30</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H163" s="6">
-        <f>D163*(1/(E163*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C164" s="3">
         <v>49</v>
@@ -4624,22 +4549,20 @@
       <c r="E164" s="3">
         <v>30</v>
       </c>
-      <c r="F164" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="6">
-        <f>D164*(1/(E164*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C165" s="4">
         <v>50</v>
@@ -4650,22 +4573,20 @@
       <c r="E165" s="3">
         <v>30</v>
       </c>
-      <c r="F165" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="6">
-        <f>D165*(1/(E165*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C166" s="3">
         <v>51</v>
@@ -4676,22 +4597,20 @@
       <c r="E166" s="3">
         <v>30</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="6">
-        <f>D166*(1/(E166*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C167" s="3">
         <v>52</v>
@@ -4702,22 +4621,20 @@
       <c r="E167" s="3">
         <v>30</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="6">
-        <f>D167*(1/(E167*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C168" s="4">
         <v>53</v>
@@ -4728,22 +4645,20 @@
       <c r="E168" s="3">
         <v>30</v>
       </c>
-      <c r="F168" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="6">
-        <f>D168*(1/(E168*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C169" s="3">
         <v>54</v>
@@ -4754,22 +4669,20 @@
       <c r="E169" s="3">
         <v>30</v>
       </c>
-      <c r="F169" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="6">
-        <f>D169*(1/(E169*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C170" s="3">
         <v>55</v>
@@ -4780,22 +4693,20 @@
       <c r="E170" s="3">
         <v>30</v>
       </c>
-      <c r="F170" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="6">
-        <f>D170*(1/(E170*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C171" s="4">
         <v>56</v>
@@ -4806,22 +4717,20 @@
       <c r="E171" s="3">
         <v>30</v>
       </c>
-      <c r="F171" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="6">
-        <f>D171*(1/(E171*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C172" s="3">
         <v>57</v>
@@ -4833,23 +4742,23 @@
         <v>30</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H172" s="6">
-        <f>D172*(1/(E172*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C173" s="3">
         <v>58</v>
@@ -4861,11 +4770,11 @@
         <v>30</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="6">
-        <f>D173*(1/(E173*1000/(60*60)))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -4875,4 +4784,16 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681D3D5A-AA2E-42DC-90C6-FB0A28127D18}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Train Paths.xlsx
+++ b/Train Paths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6232B9-9CAA-463D-A567-9CA2423F28C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5114E1-DAD8-4367-BB1A-A4E00A331648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="54">
   <si>
     <t>K</t>
   </si>
@@ -199,15 +199,6 @@
   </si>
   <si>
     <t>STATION; CASTLE SHANNON</t>
-  </si>
-  <si>
-    <t>Glenbury --&gt; Castle Shannon</t>
-  </si>
-  <si>
-    <t>START --&gt; Glenbury</t>
-  </si>
-  <si>
-    <t>Castle Shannon --&gt; END</t>
   </si>
 </sst>
 </file>
@@ -618,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC49BC8-5AFA-4F8B-8993-BD2220A0FE14}">
-  <dimension ref="A1:K173"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +630,7 @@
     <col min="11" max="16384" width="10.33203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -665,7 +656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -690,7 +681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -712,15 +703,8 @@
         <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="7">
-        <f>SUM(D2:D5) + 17</f>
-        <v>467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -742,15 +726,8 @@
         <f t="shared" si="0"/>
         <v>5.1428571428571432</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="7">
-        <f>SUM(D5:D36)</f>
-        <v>4986.6000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -776,15 +753,8 @@
         <f t="shared" si="0"/>
         <v>10.285714285714286</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="7">
-        <f>SUM(D36:D173)</f>
-        <v>14741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -807,7 +777,7 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
@@ -830,7 +800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -853,7 +823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -876,7 +846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -899,7 +869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -922,7 +892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -945,7 +915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -972,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -995,7 +965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1018,7 +988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>

--- a/Train Paths.xlsx
+++ b/Train Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5114E1-DAD8-4367-BB1A-A4E00A331648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B482EAC-6631-4BC1-8289-F79127457401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{49697FAA-9802-4200-863F-69C406775CAB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="54">
   <si>
     <t>K</t>
   </si>
@@ -609,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC49BC8-5AFA-4F8B-8993-BD2220A0FE14}">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,28 +657,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="4">
-        <v>62</v>
-      </c>
-      <c r="D2" s="3">
-        <v>50</v>
-      </c>
-      <c r="E2" s="3">
-        <v>30</v>
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>100</v>
+      </c>
+      <c r="E2" s="7">
+        <v>25</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6">
-        <f t="shared" ref="H2:H33" si="0">D2*(1/(E2*1000/(60*60)))</f>
-        <v>6</v>
+      <c r="H2" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -686,22 +681,21 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="C3" s="4">
+        <v>62</v>
       </c>
       <c r="D3" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3">
-        <v>70</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>30</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
-        <v>5.1428571428571432</v>
+        <f t="shared" ref="H3:H34" si="0">D3*(1/(E3*1000/(60*60)))</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -712,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3">
         <v>100</v>
@@ -734,24 +728,20 @@
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
-        <v>65</v>
+      <c r="C5" s="3">
+        <v>64</v>
       </c>
       <c r="D5" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E5" s="3">
         <v>70</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="6">
         <f t="shared" si="0"/>
-        <v>10.285714285714286</v>
+        <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -761,8 +751,8 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>66</v>
+      <c r="C6" s="4">
+        <v>65</v>
       </c>
       <c r="D6" s="3">
         <v>200</v>
@@ -770,8 +760,12 @@
       <c r="E6" s="3">
         <v>70</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>10.285714285714286</v>
@@ -785,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E7" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -807,8 +801,8 @@
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
-        <v>68</v>
+      <c r="C8" s="3">
+        <v>67</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
@@ -828,10 +822,10 @@
         <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3">
-        <v>69</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>68</v>
       </c>
       <c r="D9" s="3">
         <v>100</v>
@@ -854,7 +848,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="3">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3">
         <v>100</v>
@@ -876,8 +870,8 @@
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4">
-        <v>71</v>
+      <c r="C11" s="3">
+        <v>70</v>
       </c>
       <c r="D11" s="3">
         <v>100</v>
@@ -899,8 +893,8 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
-        <v>72</v>
+      <c r="C12" s="4">
+        <v>71</v>
       </c>
       <c r="D12" s="3">
         <v>100</v>
@@ -923,7 +917,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="3">
         <v>100</v>
@@ -931,12 +925,8 @@
       <c r="E13" s="3">
         <v>40</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -947,10 +937,10 @@
         <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4">
-        <v>74</v>
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>73</v>
       </c>
       <c r="D14" s="3">
         <v>100</v>
@@ -958,8 +948,12 @@
       <c r="E14" s="3">
         <v>40</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H14" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -972,8 +966,8 @@
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
-        <v>75</v>
+      <c r="C15" s="4">
+        <v>74</v>
       </c>
       <c r="D15" s="3">
         <v>100</v>
@@ -996,7 +990,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="3">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="3">
         <v>100</v>
@@ -1016,26 +1010,22 @@
         <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>70</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="6">
         <f t="shared" si="0"/>
-        <v>15.428571428571431</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1045,8 +1035,8 @@
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4">
-        <v>78</v>
+      <c r="C18" s="3">
+        <v>77</v>
       </c>
       <c r="D18" s="3">
         <v>300</v>
@@ -1054,8 +1044,12 @@
       <c r="E18" s="3">
         <v>70</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H18" s="6">
         <f t="shared" si="0"/>
         <v>15.428571428571431</v>
@@ -1068,8 +1062,8 @@
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="3">
-        <v>79</v>
+      <c r="C19" s="4">
+        <v>78</v>
       </c>
       <c r="D19" s="3">
         <v>300</v>
@@ -1092,7 +1086,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="3">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="3">
         <v>300</v>
@@ -1115,7 +1109,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="3">
         <v>300</v>
@@ -1137,8 +1131,8 @@
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="4">
-        <v>82</v>
+      <c r="C22" s="3">
+        <v>81</v>
       </c>
       <c r="D22" s="3">
         <v>300</v>
@@ -1160,8 +1154,8 @@
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="3">
-        <v>83</v>
+      <c r="C23" s="4">
+        <v>82</v>
       </c>
       <c r="D23" s="3">
         <v>300</v>
@@ -1184,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="3">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="3">
         <v>300</v>
@@ -1207,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="3">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="3">
         <v>300</v>
@@ -1227,22 +1221,22 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="4">
-        <v>86</v>
+        <v>14</v>
+      </c>
+      <c r="C26" s="3">
+        <v>85</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="6">
         <f t="shared" si="0"/>
-        <v>14.399999999999999</v>
+        <v>15.428571428571431</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1252,11 +1246,11 @@
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="3">
-        <v>87</v>
+      <c r="C27" s="4">
+        <v>86</v>
       </c>
       <c r="D27" s="3">
-        <v>86.6</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>25</v>
@@ -1265,7 +1259,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="6">
         <f t="shared" si="0"/>
-        <v>12.470399999999998</v>
+        <v>14.399999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1276,23 +1270,19 @@
         <v>17</v>
       </c>
       <c r="C28" s="3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="3">
-        <v>100</v>
+        <v>86.6</v>
       </c>
       <c r="E28" s="3">
         <v>25</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="6">
         <f t="shared" si="0"/>
-        <v>14.399999999999999</v>
+        <v>12.470399999999998</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1300,22 +1290,26 @@
         <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3">
         <v>25</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H29" s="6">
         <f t="shared" si="0"/>
-        <v>10.799999999999999</v>
+        <v>14.399999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1325,8 +1319,8 @@
       <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="4">
-        <v>90</v>
+      <c r="C30" s="3">
+        <v>89</v>
       </c>
       <c r="D30" s="3">
         <v>75</v>
@@ -1348,8 +1342,8 @@
       <c r="B31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="3">
-        <v>91</v>
+      <c r="C31" s="4">
+        <v>90</v>
       </c>
       <c r="D31" s="3">
         <v>75</v>
@@ -1372,7 +1366,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="3">
         <v>75</v>
@@ -1395,7 +1389,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="3">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="3">
         <v>75</v>
@@ -1417,8 +1411,8 @@
       <c r="B34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="4">
-        <v>94</v>
+      <c r="C34" s="3">
+        <v>93</v>
       </c>
       <c r="D34" s="3">
         <v>75</v>
@@ -1429,7 +1423,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:H65" si="1">D34*(1/(E34*1000/(60*60)))</f>
+        <f t="shared" si="0"/>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1440,8 +1434,8 @@
       <c r="B35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="3">
-        <v>95</v>
+      <c r="C35" s="4">
+        <v>94</v>
       </c>
       <c r="D35" s="3">
         <v>75</v>
@@ -1452,7 +1446,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H35:H66" si="1">D35*(1/(E35*1000/(60*60)))</f>
         <v>10.799999999999999</v>
       </c>
     </row>
@@ -1464,7 +1458,7 @@
         <v>20</v>
       </c>
       <c r="C36" s="3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="3">
         <v>75</v>
@@ -1472,12 +1466,8 @@
       <c r="E36" s="3">
         <v>25</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="6">
         <f t="shared" si="1"/>
         <v>10.799999999999999</v>
@@ -1491,7 +1481,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="3">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37" s="3">
         <v>75</v>
@@ -1499,8 +1489,12 @@
       <c r="E37" s="3">
         <v>25</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="F37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H37" s="6">
         <f t="shared" si="1"/>
         <v>10.799999999999999</v>
@@ -1511,10 +1505,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="4">
-        <v>98</v>
+        <v>20</v>
+      </c>
+      <c r="C38" s="3">
+        <v>97</v>
       </c>
       <c r="D38" s="3">
         <v>75</v>
@@ -1536,8 +1530,8 @@
       <c r="B39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="3">
-        <v>99</v>
+      <c r="C39" s="4">
+        <v>98</v>
       </c>
       <c r="D39" s="3">
         <v>75</v>
@@ -1560,7 +1554,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="3">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" s="3">
         <v>75</v>
@@ -1580,22 +1574,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C41" s="3">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D41" s="3">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="E41" s="3">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="6">
         <f t="shared" si="1"/>
-        <v>15.428571428571431</v>
+        <v>10.799999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1606,7 +1600,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42" s="3">
         <v>300</v>
@@ -1629,7 +1623,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D43" s="3">
         <v>300</v>
@@ -1651,8 +1645,8 @@
       <c r="B44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="4">
-        <v>82</v>
+      <c r="C44" s="3">
+        <v>83</v>
       </c>
       <c r="D44" s="3">
         <v>300</v>
@@ -1674,8 +1668,8 @@
       <c r="B45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="3">
-        <v>81</v>
+      <c r="C45" s="4">
+        <v>82</v>
       </c>
       <c r="D45" s="3">
         <v>300</v>
@@ -1698,7 +1692,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D46" s="3">
         <v>300</v>
@@ -1721,7 +1715,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D47" s="3">
         <v>300</v>
@@ -1743,8 +1737,8 @@
       <c r="B48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="4">
-        <v>78</v>
+      <c r="C48" s="3">
+        <v>79</v>
       </c>
       <c r="D48" s="3">
         <v>300</v>
@@ -1766,8 +1760,8 @@
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="3">
-        <v>77</v>
+      <c r="C49" s="4">
+        <v>78</v>
       </c>
       <c r="D49" s="3">
         <v>300</v>
@@ -1775,12 +1769,8 @@
       <c r="E49" s="3">
         <v>70</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
       <c r="H49" s="6">
         <f t="shared" si="1"/>
         <v>15.428571428571431</v>
@@ -1791,22 +1781,26 @@
         <v>39</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C50" s="3">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D50" s="3">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="E50" s="3">
-        <v>26</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H50" s="6">
         <f t="shared" si="1"/>
-        <v>4.8461538461538467</v>
+        <v>15.428571428571431</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1814,22 +1808,22 @@
         <v>39</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="4">
-        <v>102</v>
+        <v>22</v>
+      </c>
+      <c r="C51" s="3">
+        <v>101</v>
       </c>
       <c r="D51" s="3">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="E51" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="6">
         <f t="shared" si="1"/>
-        <v>12.857142857142859</v>
+        <v>4.8461538461538467</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1839,8 +1833,8 @@
       <c r="B52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="3">
-        <v>103</v>
+      <c r="C52" s="4">
+        <v>102</v>
       </c>
       <c r="D52" s="3">
         <v>100</v>
@@ -1863,10 +1857,10 @@
         <v>23</v>
       </c>
       <c r="C53" s="3">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E53" s="3">
         <v>28</v>
@@ -1875,7 +1869,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="6">
         <f t="shared" si="1"/>
-        <v>10.285714285714286</v>
+        <v>12.857142857142859</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1883,26 +1877,22 @@
         <v>39</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" s="3">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E54" s="3">
         <v>28</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
       <c r="H54" s="6">
         <f t="shared" si="1"/>
-        <v>12.857142857142859</v>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1912,8 +1902,8 @@
       <c r="B55" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="4">
-        <v>106</v>
+      <c r="C55" s="3">
+        <v>105</v>
       </c>
       <c r="D55" s="3">
         <v>100</v>
@@ -1921,8 +1911,12 @@
       <c r="E55" s="3">
         <v>28</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="F55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H55" s="6">
         <f t="shared" si="1"/>
         <v>12.857142857142859</v>
@@ -1935,11 +1929,11 @@
       <c r="B56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="3">
-        <v>107</v>
+      <c r="C56" s="4">
+        <v>106</v>
       </c>
       <c r="D56" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E56" s="3">
         <v>28</v>
@@ -1948,7 +1942,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="6">
         <f t="shared" si="1"/>
-        <v>11.571428571428573</v>
+        <v>12.857142857142859</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1959,10 +1953,10 @@
         <v>24</v>
       </c>
       <c r="C57" s="3">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E57" s="3">
         <v>28</v>
@@ -1971,7 +1965,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="6">
         <f t="shared" si="1"/>
-        <v>12.857142857142859</v>
+        <v>11.571428571428573</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1982,7 +1976,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="3">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D58" s="3">
         <v>100</v>
@@ -2002,22 +1996,22 @@
         <v>39</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="4">
-        <v>110</v>
+        <v>24</v>
+      </c>
+      <c r="C59" s="3">
+        <v>109</v>
       </c>
       <c r="D59" s="3">
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="6">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>12.857142857142859</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2027,8 +2021,8 @@
       <c r="B60" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="3">
-        <v>111</v>
+      <c r="C60" s="4">
+        <v>110</v>
       </c>
       <c r="D60" s="3">
         <v>100</v>
@@ -2051,7 +2045,7 @@
         <v>25</v>
       </c>
       <c r="C61" s="3">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D61" s="3">
         <v>100</v>
@@ -2074,7 +2068,7 @@
         <v>25</v>
       </c>
       <c r="C62" s="3">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
@@ -2096,48 +2090,48 @@
       <c r="B63" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
+        <v>113</v>
+      </c>
+      <c r="D63" s="3">
+        <v>100</v>
+      </c>
+      <c r="E63" s="3">
+        <v>30</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="4">
         <v>114</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D64" s="3">
         <f>100+62</f>
         <v>162</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E64" s="3">
         <v>30</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="3" t="s">
+      <c r="F64" s="5"/>
+      <c r="G64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H64" s="6">
         <f t="shared" si="1"/>
         <v>19.439999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="3">
-        <v>115</v>
-      </c>
-      <c r="D64" s="3">
-        <v>100</v>
-      </c>
-      <c r="E64" s="3">
-        <v>30</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
     <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>39</v>
@@ -2146,7 +2140,7 @@
         <v>25</v>
       </c>
       <c r="C65" s="3">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D65" s="3">
         <v>100</v>
@@ -2166,21 +2160,21 @@
         <v>39</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C66" s="3">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D66" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="6">
-        <f t="shared" ref="H66:H97" si="2">D66*(1/(E66*1000/(60*60)))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -2191,8 +2185,8 @@
       <c r="B67" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="4">
-        <v>118</v>
+      <c r="C67" s="3">
+        <v>117</v>
       </c>
       <c r="D67" s="3">
         <v>50</v>
@@ -2203,7 +2197,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H67:H98" si="2">D67*(1/(E67*1000/(60*60)))</f>
         <v>12</v>
       </c>
     </row>
@@ -2214,11 +2208,11 @@
       <c r="B68" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="3">
-        <v>119</v>
+      <c r="C68" s="4">
+        <v>118</v>
       </c>
       <c r="D68" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E68" s="3">
         <v>15</v>
@@ -2227,7 +2221,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="6">
         <f t="shared" si="2"/>
-        <v>9.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2238,10 +2232,10 @@
         <v>26</v>
       </c>
       <c r="C69" s="3">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D69" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E69" s="3">
         <v>15</v>
@@ -2250,7 +2244,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2261,7 +2255,7 @@
         <v>26</v>
       </c>
       <c r="C70" s="3">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D70" s="3">
         <v>50</v>
@@ -2281,22 +2275,22 @@
         <v>39</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="4">
-        <v>122</v>
+        <v>26</v>
+      </c>
+      <c r="C71" s="3">
+        <v>121</v>
       </c>
       <c r="D71" s="3">
         <v>50</v>
       </c>
       <c r="E71" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="6">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2306,8 +2300,8 @@
       <c r="B72" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="3">
-        <v>123</v>
+      <c r="C72" s="4">
+        <v>122</v>
       </c>
       <c r="D72" s="3">
         <v>50</v>
@@ -2315,12 +2309,8 @@
       <c r="E72" s="3">
         <v>20</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
       <c r="H72" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2334,7 +2324,7 @@
         <v>27</v>
       </c>
       <c r="C73" s="3">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D73" s="3">
         <v>50</v>
@@ -2342,8 +2332,12 @@
       <c r="E73" s="3">
         <v>20</v>
       </c>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+      <c r="F73" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H73" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2357,7 +2351,7 @@
         <v>27</v>
       </c>
       <c r="C74" s="3">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D74" s="3">
         <v>50</v>
@@ -2379,8 +2373,8 @@
       <c r="B75" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="4">
-        <v>126</v>
+      <c r="C75" s="3">
+        <v>125</v>
       </c>
       <c r="D75" s="3">
         <v>50</v>
@@ -2402,8 +2396,8 @@
       <c r="B76" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="3">
-        <v>127</v>
+      <c r="C76" s="4">
+        <v>126</v>
       </c>
       <c r="D76" s="3">
         <v>50</v>
@@ -2426,7 +2420,7 @@
         <v>27</v>
       </c>
       <c r="C77" s="3">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D77" s="3">
         <v>50</v>
@@ -2449,7 +2443,7 @@
         <v>27</v>
       </c>
       <c r="C78" s="3">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D78" s="3">
         <v>50</v>
@@ -2471,8 +2465,8 @@
       <c r="B79" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="4">
-        <v>130</v>
+      <c r="C79" s="3">
+        <v>129</v>
       </c>
       <c r="D79" s="3">
         <v>50</v>
@@ -2494,8 +2488,8 @@
       <c r="B80" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="3">
-        <v>131</v>
+      <c r="C80" s="4">
+        <v>130</v>
       </c>
       <c r="D80" s="3">
         <v>50</v>
@@ -2518,7 +2512,7 @@
         <v>27</v>
       </c>
       <c r="C81" s="3">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D81" s="3">
         <v>50</v>
@@ -2526,12 +2520,8 @@
       <c r="E81" s="3">
         <v>20</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
       <c r="H81" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2545,7 +2535,7 @@
         <v>27</v>
       </c>
       <c r="C82" s="3">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D82" s="3">
         <v>50</v>
@@ -2553,8 +2543,12 @@
       <c r="E82" s="3">
         <v>20</v>
       </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
+      <c r="F82" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H82" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2567,8 +2561,8 @@
       <c r="B83" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="4">
-        <v>134</v>
+      <c r="C83" s="3">
+        <v>133</v>
       </c>
       <c r="D83" s="3">
         <v>50</v>
@@ -2590,8 +2584,8 @@
       <c r="B84" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C84" s="3">
-        <v>135</v>
+      <c r="C84" s="4">
+        <v>134</v>
       </c>
       <c r="D84" s="3">
         <v>50</v>
@@ -2614,7 +2608,7 @@
         <v>27</v>
       </c>
       <c r="C85" s="3">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D85" s="3">
         <v>50</v>
@@ -2637,7 +2631,7 @@
         <v>27</v>
       </c>
       <c r="C86" s="3">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D86" s="3">
         <v>50</v>
@@ -2659,8 +2653,8 @@
       <c r="B87" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C87" s="4">
-        <v>138</v>
+      <c r="C87" s="3">
+        <v>137</v>
       </c>
       <c r="D87" s="3">
         <v>50</v>
@@ -2682,8 +2676,8 @@
       <c r="B88" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C88" s="3">
-        <v>139</v>
+      <c r="C88" s="4">
+        <v>138</v>
       </c>
       <c r="D88" s="3">
         <v>50</v>
@@ -2706,7 +2700,7 @@
         <v>27</v>
       </c>
       <c r="C89" s="3">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D89" s="3">
         <v>50</v>
@@ -2729,7 +2723,7 @@
         <v>27</v>
       </c>
       <c r="C90" s="3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D90" s="3">
         <v>50</v>
@@ -2737,12 +2731,8 @@
       <c r="E90" s="3">
         <v>20</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
       <c r="H90" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2755,8 +2745,8 @@
       <c r="B91" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C91" s="4">
-        <v>142</v>
+      <c r="C91" s="3">
+        <v>141</v>
       </c>
       <c r="D91" s="3">
         <v>50</v>
@@ -2764,8 +2754,12 @@
       <c r="E91" s="3">
         <v>20</v>
       </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
+      <c r="F91" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H91" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2778,8 +2772,8 @@
       <c r="B92" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C92" s="3">
-        <v>143</v>
+      <c r="C92" s="4">
+        <v>142</v>
       </c>
       <c r="D92" s="3">
         <v>50</v>
@@ -2799,10 +2793,10 @@
         <v>39</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C93" s="3">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D93" s="3">
         <v>50</v>
@@ -2825,7 +2819,7 @@
         <v>28</v>
       </c>
       <c r="C94" s="3">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D94" s="3">
         <v>50</v>
@@ -2847,8 +2841,8 @@
       <c r="B95" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="4">
-        <v>146</v>
+      <c r="C95" s="3">
+        <v>145</v>
       </c>
       <c r="D95" s="3">
         <v>50</v>
@@ -2868,10 +2862,10 @@
         <v>39</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96" s="3">
-        <v>147</v>
+        <v>28</v>
+      </c>
+      <c r="C96" s="4">
+        <v>146</v>
       </c>
       <c r="D96" s="3">
         <v>50</v>
@@ -2894,11 +2888,10 @@
         <v>29</v>
       </c>
       <c r="C97" s="3">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D97" s="3">
-        <f>40+144</f>
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="E97" s="3">
         <v>20</v>
@@ -2907,7 +2900,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="6">
         <f t="shared" si="2"/>
-        <v>33.119999999999997</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2918,10 +2911,11 @@
         <v>29</v>
       </c>
       <c r="C98" s="3">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D98" s="3">
-        <v>40</v>
+        <f>40+144</f>
+        <v>184</v>
       </c>
       <c r="E98" s="3">
         <v>20</v>
@@ -2929,8 +2923,8 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="6">
-        <f t="shared" ref="H98:H129" si="3">D98*(1/(E98*1000/(60*60)))</f>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="2"/>
+        <v>33.119999999999997</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2938,13 +2932,13 @@
         <v>39</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C99" s="4">
-        <v>150</v>
+        <v>29</v>
+      </c>
+      <c r="C99" s="3">
+        <v>149</v>
       </c>
       <c r="D99" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E99" s="3">
         <v>20</v>
@@ -2952,8 +2946,8 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="6">
-        <f t="shared" si="3"/>
-        <v>6.3</v>
+        <f t="shared" ref="H99:H130" si="3">D99*(1/(E99*1000/(60*60)))</f>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2961,22 +2955,22 @@
         <v>39</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C100" s="3">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C100" s="4">
+        <v>150</v>
       </c>
       <c r="D100" s="3">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E100" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -2986,8 +2980,8 @@
       <c r="B101" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C101" s="4">
-        <v>27</v>
+      <c r="C101" s="3">
+        <v>28</v>
       </c>
       <c r="D101" s="3">
         <v>50</v>
@@ -3009,20 +3003,20 @@
       <c r="B102" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C102" s="3">
-        <v>26</v>
+      <c r="C102" s="4">
+        <v>27</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E102" s="3">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="6">
         <f t="shared" si="3"/>
-        <v>5.1428571428571432</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3032,11 +3026,11 @@
       <c r="B103" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="4">
-        <v>25</v>
+      <c r="C103" s="3">
+        <v>26</v>
       </c>
       <c r="D103" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E103" s="3">
         <v>70</v>
@@ -3045,7 +3039,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="6">
         <f t="shared" si="3"/>
-        <v>10.285714285714286</v>
+        <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3055,11 +3049,11 @@
       <c r="B104" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C104" s="3">
-        <v>24</v>
+      <c r="C104" s="4">
+        <v>25</v>
       </c>
       <c r="D104" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E104" s="3">
         <v>70</v>
@@ -3068,7 +3062,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="6">
         <f t="shared" si="3"/>
-        <v>15.428571428571431</v>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3079,7 +3073,7 @@
         <v>31</v>
       </c>
       <c r="C105" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D105" s="3">
         <v>300</v>
@@ -3101,8 +3095,8 @@
       <c r="B106" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="4">
-        <v>22</v>
+      <c r="C106" s="3">
+        <v>23</v>
       </c>
       <c r="D106" s="3">
         <v>300</v>
@@ -3110,12 +3104,8 @@
       <c r="E106" s="3">
         <v>70</v>
       </c>
-      <c r="F106" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
       <c r="H106" s="6">
         <f t="shared" si="3"/>
         <v>15.428571428571431</v>
@@ -3128,8 +3118,8 @@
       <c r="B107" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="3">
-        <v>21</v>
+      <c r="C107" s="4">
+        <v>22</v>
       </c>
       <c r="D107" s="3">
         <v>300</v>
@@ -3137,8 +3127,12 @@
       <c r="E107" s="3">
         <v>70</v>
       </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
+      <c r="F107" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H107" s="6">
         <f t="shared" si="3"/>
         <v>15.428571428571431</v>
@@ -3149,22 +3143,22 @@
         <v>39</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C108" s="4">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="C108" s="3">
+        <v>21</v>
       </c>
       <c r="D108" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E108" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="6">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>15.428571428571431</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3174,8 +3168,8 @@
       <c r="B109" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="3">
-        <v>19</v>
+      <c r="C109" s="4">
+        <v>20</v>
       </c>
       <c r="D109" s="3">
         <v>150</v>
@@ -3183,7 +3177,7 @@
       <c r="E109" s="3">
         <v>60</v>
       </c>
-      <c r="F109" s="5"/>
+      <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="6">
         <f t="shared" si="3"/>
@@ -3198,7 +3192,7 @@
         <v>33</v>
       </c>
       <c r="C110" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D110" s="3">
         <v>150</v>
@@ -3206,7 +3200,7 @@
       <c r="E110" s="3">
         <v>60</v>
       </c>
-      <c r="F110" s="3"/>
+      <c r="F110" s="5"/>
       <c r="G110" s="3"/>
       <c r="H110" s="6">
         <f t="shared" si="3"/>
@@ -3220,8 +3214,8 @@
       <c r="B111" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C111" s="4">
-        <v>17</v>
+      <c r="C111" s="3">
+        <v>18</v>
       </c>
       <c r="D111" s="3">
         <v>150</v>
@@ -3241,26 +3235,22 @@
         <v>39</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C112" s="3">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="C112" s="4">
+        <v>17</v>
       </c>
       <c r="D112" s="3">
         <v>150</v>
       </c>
       <c r="E112" s="3">
-        <v>70</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
       <c r="H112" s="6">
         <f t="shared" si="3"/>
-        <v>7.7142857142857153</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3270,8 +3260,8 @@
       <c r="B113" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C113" s="4">
-        <v>15</v>
+      <c r="C113" s="3">
+        <v>16</v>
       </c>
       <c r="D113" s="3">
         <v>150</v>
@@ -3279,8 +3269,12 @@
       <c r="E113" s="3">
         <v>70</v>
       </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
+      <c r="F113" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H113" s="6">
         <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
@@ -3293,8 +3287,8 @@
       <c r="B114" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C114" s="3">
-        <v>14</v>
+      <c r="C114" s="4">
+        <v>15</v>
       </c>
       <c r="D114" s="3">
         <v>150</v>
@@ -3317,7 +3311,7 @@
         <v>34</v>
       </c>
       <c r="C115" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D115" s="3">
         <v>150</v>
@@ -3337,22 +3331,22 @@
         <v>39</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C116" s="4">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="C116" s="3">
+        <v>13</v>
       </c>
       <c r="D116" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E116" s="3">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="6">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3362,8 +3356,8 @@
       <c r="B117" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C117" s="3">
-        <v>11</v>
+      <c r="C117" s="4">
+        <v>12</v>
       </c>
       <c r="D117" s="3">
         <v>100</v>
@@ -3385,8 +3379,8 @@
       <c r="B118" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C118" s="4">
-        <v>10</v>
+      <c r="C118" s="3">
+        <v>11</v>
       </c>
       <c r="D118" s="3">
         <v>100</v>
@@ -3408,8 +3402,8 @@
       <c r="B119" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C119" s="3">
-        <v>9</v>
+      <c r="C119" s="4">
+        <v>10</v>
       </c>
       <c r="D119" s="3">
         <v>100</v>
@@ -3417,12 +3411,8 @@
       <c r="E119" s="3">
         <v>45</v>
       </c>
-      <c r="F119" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
       <c r="H119" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3436,7 +3426,7 @@
         <v>36</v>
       </c>
       <c r="C120" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="3">
         <v>100</v>
@@ -3444,8 +3434,12 @@
       <c r="E120" s="3">
         <v>45</v>
       </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
+      <c r="F120" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H120" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3458,8 +3452,8 @@
       <c r="B121" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C121" s="4">
-        <v>7</v>
+      <c r="C121" s="3">
+        <v>8</v>
       </c>
       <c r="D121" s="3">
         <v>100</v>
@@ -3467,7 +3461,7 @@
       <c r="E121" s="3">
         <v>45</v>
       </c>
-      <c r="F121" s="5"/>
+      <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="6">
         <f t="shared" si="3"/>
@@ -3479,10 +3473,10 @@
         <v>39</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C122" s="3">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="C122" s="4">
+        <v>7</v>
       </c>
       <c r="D122" s="3">
         <v>100</v>
@@ -3490,7 +3484,7 @@
       <c r="E122" s="3">
         <v>45</v>
       </c>
-      <c r="F122" s="3"/>
+      <c r="F122" s="5"/>
       <c r="G122" s="3"/>
       <c r="H122" s="6">
         <f t="shared" si="3"/>
@@ -3505,7 +3499,7 @@
         <v>38</v>
       </c>
       <c r="C123" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D123" s="3">
         <v>100</v>
@@ -3527,8 +3521,8 @@
       <c r="B124" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C124" s="4">
-        <v>4</v>
+      <c r="C124" s="3">
+        <v>5</v>
       </c>
       <c r="D124" s="3">
         <v>100</v>
@@ -3548,10 +3542,10 @@
         <v>39</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C125" s="3">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="C125" s="4">
+        <v>4</v>
       </c>
       <c r="D125" s="3">
         <v>100</v>
@@ -3567,15 +3561,14 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="str">
-        <f>A125</f>
-        <v>Green</v>
+      <c r="A126" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C126" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D126" s="3">
         <v>100</v>
@@ -3583,12 +3576,8 @@
       <c r="E126" s="3">
         <v>45</v>
       </c>
-      <c r="F126" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
       <c r="H126" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3596,14 +3585,14 @@
     </row>
     <row r="127" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="str">
-        <f t="shared" ref="A127:A173" si="4">A126</f>
+        <f>A126</f>
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C127" s="4">
-        <v>1</v>
+      <c r="C127" s="3">
+        <v>2</v>
       </c>
       <c r="D127" s="3">
         <v>100</v>
@@ -3611,8 +3600,12 @@
       <c r="E127" s="3">
         <v>45</v>
       </c>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
+      <c r="F127" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H127" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3620,26 +3613,26 @@
     </row>
     <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A128:A174" si="4">A127</f>
         <v>Green</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C128" s="3">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="C128" s="4">
+        <v>1</v>
       </c>
       <c r="D128" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E128" s="3">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="6">
         <f t="shared" si="3"/>
-        <v>7.7142857142857153</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3651,7 +3644,7 @@
         <v>34</v>
       </c>
       <c r="C129" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D129" s="3">
         <v>150</v>
@@ -3674,8 +3667,8 @@
       <c r="B130" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="4">
-        <v>15</v>
+      <c r="C130" s="3">
+        <v>14</v>
       </c>
       <c r="D130" s="3">
         <v>150</v>
@@ -3686,7 +3679,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="6">
-        <f t="shared" ref="H130:H161" si="5">D130*(1/(E130*1000/(60*60)))</f>
+        <f t="shared" si="3"/>
         <v>7.7142857142857153</v>
       </c>
     </row>
@@ -3698,8 +3691,8 @@
       <c r="B131" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C131" s="3">
-        <v>16</v>
+      <c r="C131" s="4">
+        <v>15</v>
       </c>
       <c r="D131" s="3">
         <v>150</v>
@@ -3707,14 +3700,10 @@
       <c r="E131" s="3">
         <v>70</v>
       </c>
-      <c r="F131" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
       <c r="H131" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H131:H162" si="5">D131*(1/(E131*1000/(60*60)))</f>
         <v>7.7142857142857153</v>
       </c>
     </row>
@@ -3724,22 +3713,26 @@
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C132" s="4">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="C132" s="3">
+        <v>16</v>
       </c>
       <c r="D132" s="3">
         <v>150</v>
       </c>
       <c r="E132" s="3">
-        <v>60</v>
-      </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H132" s="6">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>7.7142857142857153</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3750,8 +3743,8 @@
       <c r="B133" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C133" s="3">
-        <v>18</v>
+      <c r="C133" s="4">
+        <v>17</v>
       </c>
       <c r="D133" s="3">
         <v>150</v>
@@ -3775,7 +3768,7 @@
         <v>33</v>
       </c>
       <c r="C134" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D134" s="3">
         <v>150</v>
@@ -3783,7 +3776,7 @@
       <c r="E134" s="3">
         <v>60</v>
       </c>
-      <c r="F134" s="5"/>
+      <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="6">
         <f t="shared" si="5"/>
@@ -3798,8 +3791,8 @@
       <c r="B135" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C135" s="4">
-        <v>20</v>
+      <c r="C135" s="3">
+        <v>19</v>
       </c>
       <c r="D135" s="3">
         <v>150</v>
@@ -3807,7 +3800,7 @@
       <c r="E135" s="3">
         <v>60</v>
       </c>
-      <c r="F135" s="3"/>
+      <c r="F135" s="5"/>
       <c r="G135" s="3"/>
       <c r="H135" s="6">
         <f t="shared" si="5"/>
@@ -3820,22 +3813,22 @@
         <v>Green</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C136" s="3">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="C136" s="4">
+        <v>20</v>
       </c>
       <c r="D136" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E136" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="6">
         <f t="shared" si="5"/>
-        <v>15.428571428571431</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3846,8 +3839,8 @@
       <c r="B137" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C137" s="4">
-        <v>22</v>
+      <c r="C137" s="3">
+        <v>21</v>
       </c>
       <c r="D137" s="3">
         <v>300</v>
@@ -3855,12 +3848,8 @@
       <c r="E137" s="3">
         <v>70</v>
       </c>
-      <c r="F137" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
       <c r="H137" s="6">
         <f t="shared" si="5"/>
         <v>15.428571428571431</v>
@@ -3874,8 +3863,8 @@
       <c r="B138" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C138" s="3">
-        <v>23</v>
+      <c r="C138" s="4">
+        <v>22</v>
       </c>
       <c r="D138" s="3">
         <v>300</v>
@@ -3883,8 +3872,12 @@
       <c r="E138" s="3">
         <v>70</v>
       </c>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
+      <c r="F138" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H138" s="6">
         <f t="shared" si="5"/>
         <v>15.428571428571431</v>
@@ -3899,7 +3892,7 @@
         <v>31</v>
       </c>
       <c r="C139" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D139" s="3">
         <v>300</v>
@@ -3922,11 +3915,11 @@
       <c r="B140" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C140" s="4">
-        <v>25</v>
+      <c r="C140" s="3">
+        <v>24</v>
       </c>
       <c r="D140" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E140" s="3">
         <v>70</v>
@@ -3935,7 +3928,7 @@
       <c r="G140" s="3"/>
       <c r="H140" s="6">
         <f t="shared" si="5"/>
-        <v>10.285714285714286</v>
+        <v>15.428571428571431</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3946,11 +3939,11 @@
       <c r="B141" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C141" s="3">
-        <v>26</v>
+      <c r="C141" s="4">
+        <v>25</v>
       </c>
       <c r="D141" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E141" s="3">
         <v>70</v>
@@ -3959,7 +3952,7 @@
       <c r="G141" s="3"/>
       <c r="H141" s="6">
         <f t="shared" si="5"/>
-        <v>5.1428571428571432</v>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3970,20 +3963,20 @@
       <c r="B142" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C142" s="4">
-        <v>27</v>
+      <c r="C142" s="3">
+        <v>26</v>
       </c>
       <c r="D142" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E142" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="6">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -3994,8 +3987,8 @@
       <c r="B143" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C143" s="3">
-        <v>28</v>
+      <c r="C143" s="4">
+        <v>27</v>
       </c>
       <c r="D143" s="3">
         <v>50</v>
@@ -4016,10 +4009,10 @@
         <v>Green</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C144" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D144" s="3">
         <v>50</v>
@@ -4042,8 +4035,8 @@
       <c r="B145" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C145" s="4">
-        <v>30</v>
+      <c r="C145" s="3">
+        <v>29</v>
       </c>
       <c r="D145" s="3">
         <v>50</v>
@@ -4066,8 +4059,8 @@
       <c r="B146" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C146" s="3">
-        <v>31</v>
+      <c r="C146" s="4">
+        <v>30</v>
       </c>
       <c r="D146" s="3">
         <v>50</v>
@@ -4075,12 +4068,8 @@
       <c r="E146" s="3">
         <v>30</v>
       </c>
-      <c r="F146" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
       <c r="H146" s="6">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4094,8 +4083,8 @@
       <c r="B147" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C147" s="4">
-        <v>32</v>
+      <c r="C147" s="3">
+        <v>31</v>
       </c>
       <c r="D147" s="3">
         <v>50</v>
@@ -4103,8 +4092,12 @@
       <c r="E147" s="3">
         <v>30</v>
       </c>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
+      <c r="F147" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H147" s="6">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4116,10 +4109,10 @@
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C148" s="3">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="C148" s="4">
+        <v>32</v>
       </c>
       <c r="D148" s="3">
         <v>50</v>
@@ -4143,7 +4136,7 @@
         <v>44</v>
       </c>
       <c r="C149" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D149" s="3">
         <v>50</v>
@@ -4166,8 +4159,8 @@
       <c r="B150" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C150" s="4">
-        <v>35</v>
+      <c r="C150" s="3">
+        <v>34</v>
       </c>
       <c r="D150" s="3">
         <v>50</v>
@@ -4188,10 +4181,10 @@
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C151" s="3">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="C151" s="4">
+        <v>35</v>
       </c>
       <c r="D151" s="3">
         <v>50</v>
@@ -4208,14 +4201,14 @@
     </row>
     <row r="152" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="str">
-        <f>A148</f>
+        <f t="shared" si="4"/>
         <v>Green</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C152" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D152" s="3">
         <v>50</v>
@@ -4232,14 +4225,14 @@
     </row>
     <row r="153" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>A149</f>
         <v>Green</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C153" s="4">
-        <v>38</v>
+      <c r="C153" s="3">
+        <v>37</v>
       </c>
       <c r="D153" s="3">
         <v>50</v>
@@ -4262,8 +4255,8 @@
       <c r="B154" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C154" s="3">
-        <v>39</v>
+      <c r="C154" s="4">
+        <v>38</v>
       </c>
       <c r="D154" s="3">
         <v>50</v>
@@ -4271,12 +4264,8 @@
       <c r="E154" s="3">
         <v>30</v>
       </c>
-      <c r="F154" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
       <c r="H154" s="6">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4291,7 +4280,7 @@
         <v>45</v>
       </c>
       <c r="C155" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D155" s="3">
         <v>50</v>
@@ -4299,8 +4288,12 @@
       <c r="E155" s="3">
         <v>30</v>
       </c>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
+      <c r="F155" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H155" s="6">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4314,8 +4307,8 @@
       <c r="B156" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C156" s="4">
-        <v>41</v>
+      <c r="C156" s="3">
+        <v>40</v>
       </c>
       <c r="D156" s="3">
         <v>50</v>
@@ -4338,8 +4331,8 @@
       <c r="B157" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C157" s="3">
-        <v>42</v>
+      <c r="C157" s="4">
+        <v>41</v>
       </c>
       <c r="D157" s="3">
         <v>50</v>
@@ -4363,7 +4356,7 @@
         <v>45</v>
       </c>
       <c r="C158" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D158" s="3">
         <v>50</v>
@@ -4386,8 +4379,8 @@
       <c r="B159" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C159" s="4">
-        <v>44</v>
+      <c r="C159" s="3">
+        <v>43</v>
       </c>
       <c r="D159" s="3">
         <v>50</v>
@@ -4410,8 +4403,8 @@
       <c r="B160" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C160" s="3">
-        <v>45</v>
+      <c r="C160" s="4">
+        <v>44</v>
       </c>
       <c r="D160" s="3">
         <v>50</v>
@@ -4435,7 +4428,7 @@
         <v>45</v>
       </c>
       <c r="C161" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D161" s="3">
         <v>50</v>
@@ -4458,8 +4451,8 @@
       <c r="B162" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C162" s="4">
-        <v>47</v>
+      <c r="C162" s="3">
+        <v>46</v>
       </c>
       <c r="D162" s="3">
         <v>50</v>
@@ -4470,7 +4463,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="6">
-        <f t="shared" ref="H162:H173" si="6">D162*(1/(E162*1000/(60*60)))</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -4482,8 +4475,8 @@
       <c r="B163" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C163" s="3">
-        <v>48</v>
+      <c r="C163" s="4">
+        <v>47</v>
       </c>
       <c r="D163" s="3">
         <v>50</v>
@@ -4491,14 +4484,10 @@
       <c r="E163" s="3">
         <v>30</v>
       </c>
-      <c r="F163" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
       <c r="H163" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H163:H175" si="6">D163*(1/(E163*1000/(60*60)))</f>
         <v>6</v>
       </c>
     </row>
@@ -4511,7 +4500,7 @@
         <v>45</v>
       </c>
       <c r="C164" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D164" s="3">
         <v>50</v>
@@ -4519,8 +4508,12 @@
       <c r="E164" s="3">
         <v>30</v>
       </c>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
+      <c r="F164" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H164" s="6">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -4534,8 +4527,8 @@
       <c r="B165" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C165" s="4">
-        <v>50</v>
+      <c r="C165" s="3">
+        <v>49</v>
       </c>
       <c r="D165" s="3">
         <v>50</v>
@@ -4558,8 +4551,8 @@
       <c r="B166" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C166" s="3">
-        <v>51</v>
+      <c r="C166" s="4">
+        <v>50</v>
       </c>
       <c r="D166" s="3">
         <v>50</v>
@@ -4583,7 +4576,7 @@
         <v>45</v>
       </c>
       <c r="C167" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D167" s="3">
         <v>50</v>
@@ -4606,8 +4599,8 @@
       <c r="B168" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C168" s="4">
-        <v>53</v>
+      <c r="C168" s="3">
+        <v>52</v>
       </c>
       <c r="D168" s="3">
         <v>50</v>
@@ -4630,8 +4623,8 @@
       <c r="B169" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C169" s="3">
-        <v>54</v>
+      <c r="C169" s="4">
+        <v>53</v>
       </c>
       <c r="D169" s="3">
         <v>50</v>
@@ -4655,7 +4648,7 @@
         <v>45</v>
       </c>
       <c r="C170" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D170" s="3">
         <v>50</v>
@@ -4678,8 +4671,8 @@
       <c r="B171" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C171" s="4">
-        <v>56</v>
+      <c r="C171" s="3">
+        <v>55</v>
       </c>
       <c r="D171" s="3">
         <v>50</v>
@@ -4702,8 +4695,8 @@
       <c r="B172" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C172" s="3">
-        <v>57</v>
+      <c r="C172" s="4">
+        <v>56</v>
       </c>
       <c r="D172" s="3">
         <v>50</v>
@@ -4711,12 +4704,8 @@
       <c r="E172" s="3">
         <v>30</v>
       </c>
-      <c r="F172" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
       <c r="H172" s="6">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -4728,10 +4717,10 @@
         <v>Green</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C173" s="3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D173" s="3">
         <v>50</v>
@@ -4740,17 +4729,62 @@
         <v>30</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G173" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H173" s="6">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
+    <row r="174" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Green</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C174" s="3">
+        <v>58</v>
+      </c>
+      <c r="D174" s="3">
+        <v>50</v>
+      </c>
+      <c r="E174" s="3">
+        <v>30</v>
+      </c>
+      <c r="G174" s="3"/>
+      <c r="H174" s="6">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C175" s="7">
+        <v>0</v>
+      </c>
+      <c r="D175" s="7">
+        <v>100</v>
+      </c>
+      <c r="E175" s="7">
+        <v>25</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H175" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C125:H127">
-    <sortCondition descending="1" ref="C125:C127"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C126:H128">
+    <sortCondition descending="1" ref="C126:C128"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
